--- a/GXpert/GXpert.Web/Uploads/QuestionsDownloadImportSample.xlsx
+++ b/GXpert/GXpert.Web/Uploads/QuestionsDownloadImportSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AntargyanPC-12\Firdaus\New Projects\GXpert\GXpert\GXpert.Web\Uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AntargyanPC-12\Desktop\Teja2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195FA099-9DB2-466C-95DE-0DBD1B365E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4488B7C6-CF22-4EB7-A284-32FA9E6636D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="0" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,28 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Explaination</t>
-  </si>
-  <si>
-    <t>Difficulty</t>
-  </si>
-  <si>
-    <t>Question Type</t>
-  </si>
-  <si>
-    <t>CommonDataId</t>
-  </si>
-  <si>
-    <t>CommonDataSortOrder</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Option1</t>
   </si>
@@ -64,9 +43,6 @@
     <t>Two objects X and Y are thrown upward simultaneously with the same speed. The mass of X is greater than the mass of Y. Suppose the air exerts a constant and equal force of resistance on the two bodies.</t>
   </si>
   <si>
-    <t>TEST TAG 1</t>
-  </si>
-  <si>
     <t>Y will go higher than X</t>
   </si>
   <si>
@@ -79,12 +55,6 @@
     <t>A spaceship is fired from the earth's surface with u as initial speed of 2 x 10&lt;sup&gt;&lt;small&gt;4&lt;/small&gt;&lt;/sup&gt; m/s. Its speed when it is far from the earth is</t>
   </si>
   <si>
-    <t>Initial total energy = Final total energy &lt;br&gt;1/2 mu&lt;sup&gt;&lt;small&gt;2&lt;/small&gt;&lt;/sup&gt; - GMm/R = 1/2 mv&lt;sup&gt;&lt;small&gt;2 &lt;/small&gt;&lt;/sup&gt;+ 0</t>
-  </si>
-  <si>
-    <t>TEST TAG 2</t>
-  </si>
-  <si>
     <t>1.78 x 10&lt;sup&gt;&lt;small&gt;4&lt;/small&gt;&lt;/sup&gt; m/s</t>
   </si>
   <si>
@@ -97,12 +67,6 @@
     <t>The ratio of the K.E. required to be given to the satellite to escape earth's gravitational field to the K.E. required to be given so that the satellite moves in a circular orbit just above earth atmosphere is</t>
   </si>
   <si>
-    <t>K.E. = 1/2 m v&lt;sup&gt;&lt;small&gt;2 &lt;/small&gt;&lt;/sup&gt;= m gR,&lt;br&gt;K.E.&lt;sub&gt;&lt;small&gt;circular orbit&lt;/small&gt;&lt;/sub&gt; = 1/2 m gR&lt;br&gt; = 1/2 m gR.&lt;br&gt;The ratio between two energies = 2</t>
-  </si>
-  <si>
-    <t>TEST TAG 3</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -115,18 +79,9 @@
     <t>The reduction in acceleration due to gravity at height equal to the radius of the earth from its surface is</t>
   </si>
   <si>
-    <t>g&lt;sub&gt;&lt;small&gt;h&lt;/small&gt;&lt;/sub&gt; = g (R/R + h)&lt;sup&gt;&lt;small&gt;2&lt;/small&gt;&lt;/sup&gt; = 8/4&lt;br&gt;. &lt;sup&gt;&lt;small&gt;. &lt;/small&gt;&lt;/sup&gt;. Reduction = g - 8/4 = 3g/4 = 75% dg.</t>
-  </si>
-  <si>
-    <t>TEST TAG 4</t>
-  </si>
-  <si>
     <t>Coulomb's inverse square law gives a force of interaction between static charges. It is restricted to</t>
   </si>
   <si>
-    <t>TEST TAG 5</t>
-  </si>
-  <si>
     <t>Spherical distribution of charge.</t>
   </si>
   <si>
@@ -136,25 +91,22 @@
     <t>only point charges.</t>
   </si>
   <si>
-    <t>IsSubjective</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Topic</t>
+    <t>QuestionText</t>
+  </si>
+  <si>
+    <t>EQuestion Type</t>
+  </si>
+  <si>
+    <t>Edifficulty</t>
+  </si>
+  <si>
+    <t>ClassId</t>
+  </si>
+  <si>
+    <t>SubjectId</t>
   </si>
   <si>
     <t>BloomsIndex</t>
-  </si>
-  <si>
-    <t>BloomsWeightage</t>
-  </si>
-  <si>
-    <t>SortOrder</t>
   </si>
 </sst>
 </file>
@@ -205,15 +157,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,321 +385,238 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="18" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="6">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>12</v>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4">
-        <v>3</v>
-      </c>
-      <c r="T4" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5">
-        <v>4</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="1"/>
-      <c r="S6">
-        <v>5</v>
-      </c>
-      <c r="T6" s="2">
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
